--- a/students.xlsx
+++ b/students.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Public Health</t>
   </si>
   <si>
-    <t>Universit\'{e} catholique de Louvain</t>
-  </si>
-  <si>
     <t>Alexia Lescart</t>
   </si>
   <si>
@@ -224,6 +221,15 @@
   </si>
   <si>
     <t>Toxoplasma gondii risk in different food items</t>
+  </si>
+  <si>
+    <t>Sara Hanna</t>
+  </si>
+  <si>
+    <t>Clinical impact of Giardia</t>
+  </si>
+  <si>
+    <t>Université catholique de Louvain</t>
   </si>
 </sst>
 </file>
@@ -263,7 +269,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -279,8 +285,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H24" totalsRowShown="0">
-  <autoFilter ref="A1:H24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H25" totalsRowShown="0">
+  <autoFilter ref="A1:H25"/>
   <tableColumns count="8">
     <tableColumn id="1" name="student"/>
     <tableColumn id="8" name="year"/>
@@ -296,9 +302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -336,9 +342,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,7 +379,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1099,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>2015</v>
@@ -1105,21 +1111,21 @@
         <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -1131,21 +1137,21 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
         <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>2015</v>
@@ -1154,24 +1160,24 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="E22" t="s">
-        <v>61</v>
-      </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>2015</v>
@@ -1180,24 +1186,24 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24">
         <v>2015</v>
@@ -1206,18 +1212,44 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
       </c>
       <c r="H24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25">
+        <v>2015</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
         <v>66</v>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -230,12 +230,24 @@
   </si>
   <si>
     <t>Université catholique de Louvain</t>
+  </si>
+  <si>
+    <t>Kinda Atiyeh</t>
+  </si>
+  <si>
+    <t>Overall and cause-specific mortality in Belgium</t>
+  </si>
+  <si>
+    <t>The burden of diabetes in Belgium and Spain</t>
+  </si>
+  <si>
+    <t>Angela Vega Rodriguez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H25" totalsRowShown="0">
-  <autoFilter ref="A1:H25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H27" totalsRowShown="0">
+  <autoFilter ref="A1:H27"/>
   <tableColumns count="8">
     <tableColumn id="1" name="student"/>
     <tableColumn id="8" name="year"/>
@@ -344,7 +356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,9 +389,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -412,6 +441,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -588,22 +634,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.53515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.3828125" customWidth="1"/>
+    <col min="4" max="5" width="21.69140625" customWidth="1"/>
+    <col min="6" max="6" width="21.84375" customWidth="1"/>
+    <col min="7" max="7" width="16.15234375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -629,7 +677,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -655,7 +703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -681,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -707,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -733,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -759,7 +807,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -785,7 +833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -811,7 +859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -837,7 +885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -863,7 +911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -889,7 +937,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -915,7 +963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -941,7 +989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -967,7 +1015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -993,7 +1041,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1019,7 +1067,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1045,7 +1093,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1071,7 +1119,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1097,7 +1145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1123,7 +1171,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1149,7 +1197,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1175,7 +1223,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1201,7 +1249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1227,7 +1275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1250,6 +1298,58 @@
         <v>33</v>
       </c>
       <c r="H25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>2016</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27">
+        <v>2016</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s">
         <v>66</v>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="84">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -242,6 +242,30 @@
   </si>
   <si>
     <t>Angela Vega Rodriguez</t>
+  </si>
+  <si>
+    <t>Damien Blondeau</t>
+  </si>
+  <si>
+    <t>Houf, Kurt; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>The disease burden of Yersinia enterocolitica in Belgium</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Hasselt University</t>
+  </si>
+  <si>
+    <t>Shkedy, Ziv; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Jade Vincent Membrebe</t>
+  </si>
+  <si>
+    <t>Development of an incidence-prevalence-mortality model</t>
   </si>
 </sst>
 </file>
@@ -297,8 +321,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H27" totalsRowShown="0">
-  <autoFilter ref="A1:H27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H29" totalsRowShown="0">
+  <autoFilter ref="A1:H29"/>
   <tableColumns count="8">
     <tableColumn id="1" name="student"/>
     <tableColumn id="8" name="year"/>
@@ -634,11 +658,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
@@ -1353,6 +1375,58 @@
         <v>66</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28">
+        <v>2016</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29">
+        <v>2016</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="103" windowWidth="14803" windowHeight="8014"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="96">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -266,12 +266,48 @@
   </si>
   <si>
     <t>Development of an incidence-prevalence-mortality model</t>
+  </si>
+  <si>
+    <t>Astrid Cornez</t>
+  </si>
+  <si>
+    <t>Orchina Hanna</t>
+  </si>
+  <si>
+    <t>Thomas Pelseneer</t>
+  </si>
+  <si>
+    <t>Boland, Benoit; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Nicaise, Pablo; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>De Smedt, Delphine; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Relations entre dénutrition et dépendances fonctionnelles chez les résidents d’une maison de repos et de soins</t>
+  </si>
+  <si>
+    <t>Self-reported morbidity and health-related quality of life in injecting drug users in Brussels, Belgium</t>
+  </si>
+  <si>
+    <t>The disease burden of cancer in Belgium</t>
+  </si>
+  <si>
+    <t>The disease burden of cystic fibrosis in Belgium</t>
+  </si>
+  <si>
+    <t>Health Care Management and Policy</t>
+  </si>
+  <si>
+    <t>Steff De Smet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,7 +341,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -321,8 +357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H29" totalsRowShown="0">
-  <autoFilter ref="A1:H29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H33" totalsRowShown="0">
+  <autoFilter ref="A1:H33"/>
   <tableColumns count="8">
     <tableColumn id="1" name="student"/>
     <tableColumn id="8" name="year"/>
@@ -338,9 +374,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -378,9 +414,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,26 +449,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -465,26 +484,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -658,22 +660,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.53515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.3046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3828125" customWidth="1"/>
-    <col min="4" max="5" width="21.69140625" customWidth="1"/>
-    <col min="6" max="6" width="21.84375" customWidth="1"/>
-    <col min="7" max="7" width="16.15234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -699,7 +703,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -725,7 +729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -751,7 +755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -777,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -803,7 +807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -829,7 +833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -855,7 +859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -881,7 +885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -907,7 +911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -933,7 +937,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -959,7 +963,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -985,7 +989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1037,7 +1041,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1115,7 +1119,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -1141,7 +1145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -1167,7 +1171,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1193,7 +1197,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>58</v>
       </c>
@@ -1245,7 +1249,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1271,7 +1275,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1297,7 +1301,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -1375,7 +1379,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -1401,7 +1405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -1425,6 +1429,110 @@
       </c>
       <c r="H29" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30">
+        <v>2017</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31">
+        <v>2018</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32">
+        <v>2018</v>
+      </c>
+      <c r="C32" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>2018</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="115">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -302,6 +302,63 @@
   </si>
   <si>
     <t>Steff De Smet</t>
+  </si>
+  <si>
+    <t>Judith Ngoufo</t>
+  </si>
+  <si>
+    <t>The burden of coronary heart disease in Belgium</t>
+  </si>
+  <si>
+    <t>Martina Otavova</t>
+  </si>
+  <si>
+    <t>Impact of tobacco control interventions on health expectancies: use of dynamic modelling for health impact assessment in Belgium</t>
+  </si>
+  <si>
+    <t>Molenberghs, Geert; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Aline Scohy</t>
+  </si>
+  <si>
+    <t>Demography</t>
+  </si>
+  <si>
+    <t>The impact of chronic diseases on quality of life</t>
+  </si>
+  <si>
+    <t>Els Van Mol</t>
+  </si>
+  <si>
+    <t>University of Liverpool</t>
+  </si>
+  <si>
+    <t>The disease burden of burnout in Belgium</t>
+  </si>
+  <si>
+    <t>Marion Louvel</t>
+  </si>
+  <si>
+    <t>Statistical Data Analysis</t>
+  </si>
+  <si>
+    <t>The disease burden of diabetes in Belgium</t>
+  </si>
+  <si>
+    <t>Van Oyen, Herman; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Leen Van Doorslaer</t>
+  </si>
+  <si>
+    <t>Silke Thomas, Stephanie Marinus</t>
+  </si>
+  <si>
+    <t>Comparative risk assessment of tobacco use in Belgium</t>
+  </si>
+  <si>
+    <t>Health impact assessment of sugar reduction in Belgium</t>
   </si>
 </sst>
 </file>
@@ -357,8 +414,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H33" totalsRowShown="0">
-  <autoFilter ref="A1:H33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H40" totalsRowShown="0">
+  <autoFilter ref="A1:H40"/>
   <tableColumns count="8">
     <tableColumn id="1" name="student"/>
     <tableColumn id="8" name="year"/>
@@ -660,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1535,6 +1592,188 @@
         <v>89</v>
       </c>
     </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34">
+        <v>2018</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35">
+        <v>2018</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36">
+        <v>2018</v>
+      </c>
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37">
+        <v>2018</v>
+      </c>
+      <c r="C37" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>106</v>
+      </c>
+      <c r="G37" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38">
+        <v>2018</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39">
+        <v>2018</v>
+      </c>
+      <c r="C39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>113</v>
+      </c>
+      <c r="G39" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40">
+        <v>2018</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>114</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="117">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>Health impact assessment of sugar reduction in Belgium</t>
+  </si>
+  <si>
+    <t>Ellen De Ren</t>
+  </si>
+  <si>
+    <t>Comparative risk assessment of alcohol use in Belgium</t>
   </si>
 </sst>
 </file>
@@ -414,8 +420,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H40" totalsRowShown="0">
-  <autoFilter ref="A1:H40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H41" totalsRowShown="0">
+  <autoFilter ref="A1:H41"/>
   <tableColumns count="8">
     <tableColumn id="1" name="student"/>
     <tableColumn id="8" name="year"/>
@@ -717,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1774,6 +1780,32 @@
         <v>89</v>
       </c>
     </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41">
+        <v>2018</v>
+      </c>
+      <c r="C41" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/students.xlsx
+++ b/students.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="121">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -337,18 +337,6 @@
     <t>The disease burden of burnout in Belgium</t>
   </si>
   <si>
-    <t>Marion Louvel</t>
-  </si>
-  <si>
-    <t>Statistical Data Analysis</t>
-  </si>
-  <si>
-    <t>The disease burden of diabetes in Belgium</t>
-  </si>
-  <si>
-    <t>Van Oyen, Herman; Devleesschauwer, Brecht</t>
-  </si>
-  <si>
     <t>Leen Van Doorslaer</t>
   </si>
   <si>
@@ -365,13 +353,37 @@
   </si>
   <si>
     <t>Comparative risk assessment of alcohol use in Belgium</t>
+  </si>
+  <si>
+    <t>Marie Denis</t>
+  </si>
+  <si>
+    <t>Delphine Losseau</t>
+  </si>
+  <si>
+    <t>Comparative risk assessment of dietary risk factors in Belgium</t>
+  </si>
+  <si>
+    <t>The health and ecomonic impact of low back and neck pain in Belgium</t>
+  </si>
+  <si>
+    <t>Luna Gongal</t>
+  </si>
+  <si>
+    <t>Tropical Animal Health</t>
+  </si>
+  <si>
+    <t>Institute of Tropical Medicine</t>
+  </si>
+  <si>
+    <t>Knowledge, attitudes and practices on rabies in Nepal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,13 +391,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -397,13 +421,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,8 +447,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H41" totalsRowShown="0">
-  <autoFilter ref="A1:H41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H43" totalsRowShown="0">
+  <autoFilter ref="A1:H43"/>
+  <sortState ref="A2:H43">
+    <sortCondition ref="B1:B43"/>
+  </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="student"/>
     <tableColumn id="8" name="year"/>
@@ -479,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -514,7 +544,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -766,7 +796,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -792,142 +822,142 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -939,47 +969,47 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2012</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -991,21 +1021,21 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1017,44 +1047,44 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
       </c>
       <c r="H12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>2013</v>
@@ -1069,21 +1099,21 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1095,7 +1125,7 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" t="s">
         <v>33</v>
@@ -1104,35 +1134,35 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>2014</v>
@@ -1147,16 +1177,16 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1182,9 +1212,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B18">
         <v>2015</v>
@@ -1193,50 +1223,50 @@
         <v>19</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B19">
         <v>2015</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>2015</v>
@@ -1245,24 +1275,24 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <v>2015</v>
@@ -1271,24 +1301,24 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B22">
         <v>2015</v>
@@ -1297,13 +1327,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>33</v>
@@ -1312,87 +1342,87 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>2015</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B24">
         <v>2015</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="F24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B25">
         <v>2015</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
         <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B26">
         <v>2016</v>
@@ -1407,7 +1437,7 @@
         <v>71</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -1418,7 +1448,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27">
         <v>2016</v>
@@ -1427,24 +1457,24 @@
         <v>19</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>2016</v>
@@ -1453,24 +1483,24 @@
         <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B29">
         <v>2016</v>
@@ -1479,24 +1509,24 @@
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -1505,27 +1535,27 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
         <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B31">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
@@ -1537,122 +1567,122 @@
         <v>71</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B32">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C32" t="s">
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B33">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E33" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B35">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>101</v>
+      <c r="A36" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B36">
         <v>2018</v>
@@ -1661,13 +1691,13 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
         <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -1677,8 +1707,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>104</v>
+      <c r="A37" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B37">
         <v>2018</v>
@@ -1687,24 +1717,24 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>107</v>
+      <c r="A38" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B38">
         <v>2018</v>
@@ -1713,24 +1743,24 @@
         <v>19</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="F38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>111</v>
+      <c r="A39" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="B39">
         <v>2018</v>
@@ -1739,24 +1769,24 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>112</v>
+      <c r="A40" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B40">
         <v>2018</v>
@@ -1771,7 +1801,7 @@
         <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
@@ -1781,8 +1811,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>115</v>
+      <c r="A41" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B41">
         <v>2018</v>
@@ -1791,18 +1821,70 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F41" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42">
+        <v>2018</v>
+      </c>
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43">
+        <v>2018</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
         <v>94</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E43" t="s">
         <v>21</v>
       </c>
-      <c r="F41" t="s">
-        <v>116</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s">
         <v>89</v>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="118">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -326,15 +326,6 @@
   </si>
   <si>
     <t>The impact of chronic diseases on quality of life</t>
-  </si>
-  <si>
-    <t>Els Van Mol</t>
-  </si>
-  <si>
-    <t>University of Liverpool</t>
-  </si>
-  <si>
-    <t>The disease burden of burnout in Belgium</t>
   </si>
   <si>
     <t>Leen Van Doorslaer</t>
@@ -447,8 +438,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H43" totalsRowShown="0">
-  <autoFilter ref="A1:H43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H42" totalsRowShown="0">
+  <autoFilter ref="A1:H42"/>
   <sortState ref="A2:H43">
     <sortCondition ref="B1:B43"/>
   </sortState>
@@ -753,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,7 +1490,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B29">
@@ -1682,7 +1673,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B36">
         <v>2018</v>
@@ -1697,7 +1688,7 @@
         <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
@@ -1708,7 +1699,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37">
         <v>2018</v>
@@ -1723,7 +1714,7 @@
         <v>21</v>
       </c>
       <c r="F37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
@@ -1734,7 +1725,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B38">
         <v>2018</v>
@@ -1746,10 +1737,10 @@
         <v>53</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G38" t="s">
         <v>33</v>
@@ -1760,7 +1751,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B39">
         <v>2018</v>
@@ -1769,24 +1760,24 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B40">
         <v>2018</v>
@@ -1795,24 +1786,24 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E40" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F40" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B41">
         <v>2018</v>
@@ -1821,24 +1812,24 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="E41" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G41" t="s">
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B42">
         <v>2018</v>
@@ -1847,44 +1838,18 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E42" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F42" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43">
-        <v>2018</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" t="s">
-        <v>110</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" t="s">
         <v>89</v>
       </c>
     </row>

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="125">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -368,6 +368,27 @@
   </si>
   <si>
     <t>Knowledge, attitudes and practices on rabies in Nepal</t>
+  </si>
+  <si>
+    <t>The disease burden of sexually transmitted infections in Belgium</t>
+  </si>
+  <si>
+    <t>Devleesschauwer, Brecht; De Smedt, Delphine</t>
+  </si>
+  <si>
+    <t>Korneel Van Den Driessche</t>
+  </si>
+  <si>
+    <t>Senne Terryn</t>
+  </si>
+  <si>
+    <t>The disease burden of vaccine-preventable diseases in Belgium</t>
+  </si>
+  <si>
+    <t>Jinane Ghattas</t>
+  </si>
+  <si>
+    <t>The state of health in Belgium, 1990–2017: A benchmarking analysis based on the Global Burden of Disease 2017 study</t>
   </si>
 </sst>
 </file>
@@ -438,8 +459,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H42" totalsRowShown="0">
-  <autoFilter ref="A1:H42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H45" totalsRowShown="0">
+  <autoFilter ref="A1:H45"/>
   <sortState ref="A2:H43">
     <sortCondition ref="B1:B43"/>
   </sortState>
@@ -744,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1853,6 +1874,84 @@
         <v>89</v>
       </c>
     </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43">
+        <v>2018</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44">
+        <v>2018</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45">
+        <v>2018</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>124</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/students.xlsx
+++ b/students.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="129">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -389,6 +389,18 @@
   </si>
   <si>
     <t>The state of health in Belgium, 1990–2017: A benchmarking analysis based on the Global Burden of Disease 2017 study</t>
+  </si>
+  <si>
+    <t>Emilie Lemaire</t>
+  </si>
+  <si>
+    <t>Stacey Wilmaer</t>
+  </si>
+  <si>
+    <t>The health and economic burden of lupus in Belgium</t>
+  </si>
+  <si>
+    <t>The disease burden of Alzheimer’s disease in Belgium</t>
   </si>
 </sst>
 </file>
@@ -459,8 +471,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H45" totalsRowShown="0">
-  <autoFilter ref="A1:H45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H47" totalsRowShown="0">
+  <autoFilter ref="A1:H47"/>
   <sortState ref="A2:H43">
     <sortCondition ref="B1:B43"/>
   </sortState>
@@ -765,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1952,6 +1964,58 @@
         <v>65</v>
       </c>
     </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B46">
+        <v>2018</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47">
+        <v>2018</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/students.xlsx
+++ b/students.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -471,8 +472,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H47" totalsRowShown="0">
-  <autoFilter ref="A1:H47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H42" totalsRowShown="0">
+  <autoFilter ref="A1:H42"/>
   <sortState ref="A2:H43">
     <sortCondition ref="B1:B43"/>
   </sortState>
@@ -777,11 +778,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1810,7 +1809,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B40">
         <v>2018</v>
@@ -1819,24 +1818,24 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="F40" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B41">
         <v>2018</v>
@@ -1845,24 +1844,24 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G41" t="s">
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="B42">
         <v>2018</v>
@@ -1871,149 +1870,19 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43">
-        <v>2018</v>
-      </c>
-      <c r="C43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" t="s">
-        <v>94</v>
-      </c>
-      <c r="E43" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" t="s">
-        <v>122</v>
-      </c>
-      <c r="G43" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44">
-        <v>2018</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" t="s">
-        <v>118</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45">
-        <v>2018</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" t="s">
-        <v>71</v>
-      </c>
-      <c r="F45" t="s">
-        <v>124</v>
-      </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46">
-        <v>2018</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47">
-        <v>2018</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" t="s">
-        <v>53</v>
-      </c>
-      <c r="E47" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" t="s">
-        <v>33</v>
-      </c>
-      <c r="H47" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2022,4 +1891,147 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1">
+        <v>2018</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3">
+        <v>2018</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/students.xlsx
+++ b/students.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="144">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -402,6 +402,51 @@
   </si>
   <si>
     <t>The disease burden of Alzheimer’s disease in Belgium</t>
+  </si>
+  <si>
+    <t>Statistical Data Analysis</t>
+  </si>
+  <si>
+    <t>Gil Derycke</t>
+  </si>
+  <si>
+    <t>Kristiaan Proesmans</t>
+  </si>
+  <si>
+    <t>Devleesschauwer, Brecht; Faes, Christel</t>
+  </si>
+  <si>
+    <t>Melanie Sioen</t>
+  </si>
+  <si>
+    <t>Eva De Meulemeester</t>
+  </si>
+  <si>
+    <t>Devleesschauwer, Brecht; Cosyns, Marjan</t>
+  </si>
+  <si>
+    <t>Wendy Verlinde</t>
+  </si>
+  <si>
+    <t>Hanab Adbinur Mahad</t>
+  </si>
+  <si>
+    <t>Spatial distribution of smoking attributable mortality in Belgium</t>
+  </si>
+  <si>
+    <t>The disease burden of injuries in Belgium</t>
+  </si>
+  <si>
+    <t>Causes of death in Belgium, 2020-2050</t>
+  </si>
+  <si>
+    <t>Trends and impacts of obesity in Belgium, 2020-2050: an agent-based microsimulation model</t>
+  </si>
+  <si>
+    <t>Drug-related mortality in Belgium, 2002-2016</t>
+  </si>
+  <si>
+    <t>The burden of neuromuscular disorders in Belgium: a registry-based study</t>
   </si>
 </sst>
 </file>
@@ -472,10 +517,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H42" totalsRowShown="0">
-  <autoFilter ref="A1:H42"/>
-  <sortState ref="A2:H43">
-    <sortCondition ref="B1:B43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H52" totalsRowShown="0">
+  <autoFilter ref="A1:H52"/>
+  <sortState ref="A2:H52">
+    <sortCondition ref="B1:B52"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="student"/>
@@ -778,22 +823,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.55" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -819,7 +866,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -871,7 +918,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -897,7 +944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -923,7 +970,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -949,7 +996,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -975,7 +1022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +1048,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +1100,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1079,7 +1126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +1152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1131,7 +1178,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1204,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1183,7 +1230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1209,7 +1256,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1235,7 +1282,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1261,7 +1308,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1287,7 +1334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>50</v>
       </c>
@@ -1313,7 +1360,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1339,7 +1386,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1365,7 +1412,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1391,7 +1438,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1417,7 +1464,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -1443,7 +1490,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1469,7 +1516,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1495,7 +1542,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>82</v>
       </c>
@@ -1521,35 +1568,35 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>72</v>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>101</v>
       </c>
       <c r="B29">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C29" t="s">
         <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
         <v>71</v>
       </c>
       <c r="F29" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -1558,24 +1605,24 @@
         <v>19</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
         <v>71</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
         <v>33</v>
       </c>
       <c r="H30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B31">
         <v>2017</v>
@@ -1584,24 +1631,24 @@
         <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
       </c>
       <c r="H31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B32">
         <v>2017</v>
@@ -1610,24 +1657,24 @@
         <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="E32" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B33">
         <v>2017</v>
@@ -1636,24 +1683,24 @@
         <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B34">
         <v>2017</v>
@@ -1662,27 +1709,27 @@
         <v>19</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="B35">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C35" t="s">
         <v>19</v>
@@ -1694,18 +1741,18 @@
         <v>71</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="G35" t="s">
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>111</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>108</v>
       </c>
       <c r="B36">
         <v>2018</v>
@@ -1714,24 +1761,24 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>123</v>
       </c>
       <c r="B37">
         <v>2018</v>
@@ -1740,23 +1787,23 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E37" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>96</v>
       </c>
       <c r="B38">
@@ -1781,9 +1828,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>104</v>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>120</v>
       </c>
       <c r="B39">
         <v>2018</v>
@@ -1798,18 +1845,18 @@
         <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
         <v>33</v>
       </c>
       <c r="H39" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>104</v>
       </c>
       <c r="B40">
         <v>2018</v>
@@ -1818,24 +1865,24 @@
         <v>19</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F40" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>114</v>
       </c>
       <c r="B41">
         <v>2018</v>
@@ -1844,24 +1891,24 @@
         <v>19</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="E41" t="s">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="F41" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="G41" t="s">
         <v>33</v>
       </c>
       <c r="H41" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>123</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>110</v>
       </c>
       <c r="B42">
         <v>2018</v>
@@ -1876,12 +1923,272 @@
         <v>71</v>
       </c>
       <c r="F42" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G42" t="s">
         <v>33</v>
       </c>
       <c r="H42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43">
+        <v>2018</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44">
+        <v>2018</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B45">
+        <v>2019</v>
+      </c>
+      <c r="C45" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" t="s">
+        <v>127</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46">
+        <v>2019</v>
+      </c>
+      <c r="C46" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" t="s">
+        <v>129</v>
+      </c>
+      <c r="E46" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47">
+        <v>2019</v>
+      </c>
+      <c r="C47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" t="s">
+        <v>79</v>
+      </c>
+      <c r="E47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" t="s">
+        <v>33</v>
+      </c>
+      <c r="H47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B48">
+        <v>2019</v>
+      </c>
+      <c r="C48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" t="s">
+        <v>129</v>
+      </c>
+      <c r="E48" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49">
+        <v>2019</v>
+      </c>
+      <c r="C49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" t="s">
+        <v>128</v>
+      </c>
+      <c r="G49" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50">
+        <v>2020</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51">
+        <v>2020</v>
+      </c>
+      <c r="C51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52">
+        <v>2020</v>
+      </c>
+      <c r="C52" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" t="s">
+        <v>94</v>
+      </c>
+      <c r="E52" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" t="s">
+        <v>33</v>
+      </c>
+      <c r="H52" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1895,140 +2202,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B1">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C1" t="s">
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s">
         <v>33</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2">
-        <v>2018</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3">
-        <v>2018</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B4">
-        <v>2018</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5">
-        <v>2018</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -8,14 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="students" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="zzz" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="153">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -447,13 +447,40 @@
   </si>
   <si>
     <t>The burden of neuromuscular disorders in Belgium: a registry-based study</t>
+  </si>
+  <si>
+    <t>Joren Verbeke</t>
+  </si>
+  <si>
+    <t>Manu Claessens</t>
+  </si>
+  <si>
+    <t>Polina Putrik</t>
+  </si>
+  <si>
+    <t>Devleesschauwer, Brecht; Vansteelandt, Stijn</t>
+  </si>
+  <si>
+    <t>De Neve, Jan; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Léonore Nasiadka</t>
+  </si>
+  <si>
+    <t>The health and economic impact of lower respiratory infections and influenza in Belgium</t>
+  </si>
+  <si>
+    <t>Sample size calculation for animal trials based on data from virulence tests</t>
+  </si>
+  <si>
+    <t>Past, present and future trends of obesity in Belgium: an age-period-cohort modeling study</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,8 +495,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -479,6 +513,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -491,15 +530,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -517,8 +559,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H52" totalsRowShown="0">
-  <autoFilter ref="A1:H52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H55" totalsRowShown="0">
+  <autoFilter ref="A1:H55"/>
   <sortState ref="A2:H52">
     <sortCondition ref="B1:B52"/>
   </sortState>
@@ -823,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2053,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>130</v>
       </c>
       <c r="B46">
@@ -2037,8 +2079,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>137</v>
+      <c r="A47" t="s">
+        <v>131</v>
       </c>
       <c r="B47">
         <v>2019</v>
@@ -2047,24 +2089,24 @@
         <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
       </c>
       <c r="H47" t="s">
-        <v>132</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B48">
         <v>2019</v>
@@ -2073,50 +2115,50 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
       </c>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>126</v>
+      <c r="A49" t="s">
+        <v>134</v>
       </c>
       <c r="B49">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F49" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>6</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>134</v>
+      <c r="A50" t="s">
+        <v>133</v>
       </c>
       <c r="B50">
         <v>2020</v>
@@ -2131,18 +2173,18 @@
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>133</v>
+      <c r="A51" t="s">
+        <v>136</v>
       </c>
       <c r="B51">
         <v>2020</v>
@@ -2157,7 +2199,7 @@
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
@@ -2168,7 +2210,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B52">
         <v>2020</v>
@@ -2177,19 +2219,97 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G52" t="s">
         <v>33</v>
       </c>
       <c r="H52" t="s">
-        <v>65</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B53">
+        <v>2020</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+      <c r="F53" t="s">
+        <v>152</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B54">
+        <v>2020</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>79</v>
+      </c>
+      <c r="E54" t="s">
+        <v>80</v>
+      </c>
+      <c r="F54" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" t="s">
+        <v>33</v>
+      </c>
+      <c r="H54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55">
+        <v>2020</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" t="s">
+        <v>150</v>
+      </c>
+      <c r="G55" t="s">
+        <v>33</v>
+      </c>
+      <c r="H55" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2202,14 +2322,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B1">
@@ -2232,6 +2354,32 @@
       </c>
       <c r="H1" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2">
+        <v>2019</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/students.xlsx
+++ b/students.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="183">
   <si>
     <t>Anne Declercq</t>
   </si>
@@ -474,6 +474,96 @@
   </si>
   <si>
     <t>Past, present and future trends of obesity in Belgium: an age-period-cohort modeling study</t>
+  </si>
+  <si>
+    <t>Alexandra Jeanmart, Samira Thaugally</t>
+  </si>
+  <si>
+    <t>How to explain the resurgence of measles in Wallonia? A mixed methods study with the general public and health professionals</t>
+  </si>
+  <si>
+    <t>Maxime Van Santen</t>
+  </si>
+  <si>
+    <t>Source attribution of Salmonella and Campylobacter in Belgium</t>
+  </si>
+  <si>
+    <t>Devleesschauwer, Brecht; Houf, Kurt</t>
+  </si>
+  <si>
+    <t>Reynaldi Kosasih</t>
+  </si>
+  <si>
+    <t>Epidemiology</t>
+  </si>
+  <si>
+    <t>Devleesschauwer, Brecht; Van Hal, Guido</t>
+  </si>
+  <si>
+    <t>Diabetes burden attributable to red meat consumption in Belgium</t>
+  </si>
+  <si>
+    <t>Comparative risk assessment of hypertension in Belgium</t>
+  </si>
+  <si>
+    <t>Cost-effectiveness of speech therapy in Belgium</t>
+  </si>
+  <si>
+    <t>Shary De Bruycker</t>
+  </si>
+  <si>
+    <t>Manon Lagaeysse</t>
+  </si>
+  <si>
+    <t>Vera Pinheiro</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>internship report</t>
+  </si>
+  <si>
+    <t>The global burden of anthrax</t>
+  </si>
+  <si>
+    <t>Health and economic impact of diabetes in Belgium</t>
+  </si>
+  <si>
+    <t>Kimberley Hansford</t>
+  </si>
+  <si>
+    <t>Unidade de Saúde Pública Arnaldo Sampaio</t>
+  </si>
+  <si>
+    <t>Public Health Medical Internship</t>
+  </si>
+  <si>
+    <t>Emma Haentjens</t>
+  </si>
+  <si>
+    <t>Cools, Piet; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Bacterial vaginosis and sexually transmitted infections: a systematic review and meta-analysis</t>
+  </si>
+  <si>
+    <t>Medicine</t>
+  </si>
+  <si>
+    <t>Judith Brusselmans</t>
+  </si>
+  <si>
+    <t>The emotional, sexual and social impact of (recurrent) bacterial vaginosis: a systematic review</t>
+  </si>
+  <si>
+    <t>Cools, Piet; De Sutter, An; Devleesschauwer, Brecht</t>
+  </si>
+  <si>
+    <t>Laurissa Demeulenaere</t>
+  </si>
+  <si>
+    <t>The global burden of bacterial vaginosis</t>
   </si>
 </sst>
 </file>
@@ -490,14 +580,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -512,12 +602,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -541,8 +631,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -559,10 +649,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H55" totalsRowShown="0">
-  <autoFilter ref="A1:H55"/>
-  <sortState ref="A2:H52">
-    <sortCondition ref="B1:B52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabel1" displayName="Tabel1" ref="A1:H65" totalsRowShown="0">
+  <autoFilter ref="A1:H65"/>
+  <sortState ref="A2:H65">
+    <sortCondition ref="B1:B65"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="student"/>
@@ -865,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2027,8 +2117,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>125</v>
+      <c r="A45" t="s">
+        <v>153</v>
       </c>
       <c r="B45">
         <v>2019</v>
@@ -2043,7 +2133,7 @@
         <v>71</v>
       </c>
       <c r="F45" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
@@ -2054,7 +2144,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B46">
         <v>2019</v>
@@ -2063,24 +2153,24 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
         <v>33</v>
       </c>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B47">
         <v>2019</v>
@@ -2095,7 +2185,7 @@
         <v>21</v>
       </c>
       <c r="F47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -2105,8 +2195,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>126</v>
+      <c r="A48" t="s">
+        <v>131</v>
       </c>
       <c r="B48">
         <v>2019</v>
@@ -2115,50 +2205,50 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="E48" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F48" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G48" t="s">
         <v>33</v>
       </c>
       <c r="H48" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B49">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F49" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="G49" t="s">
         <v>33</v>
       </c>
       <c r="H49" t="s">
-        <v>135</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B50">
         <v>2020</v>
@@ -2173,18 +2263,18 @@
         <v>21</v>
       </c>
       <c r="F50" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
       </c>
       <c r="H50" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B51">
         <v>2020</v>
@@ -2193,24 +2283,24 @@
         <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
       </c>
       <c r="F51" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
       </c>
       <c r="H51" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>144</v>
+      <c r="A52" t="s">
+        <v>178</v>
       </c>
       <c r="B52">
         <v>2020</v>
@@ -2219,24 +2309,24 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="G52" t="s">
         <v>33</v>
       </c>
       <c r="H52" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>145</v>
+      <c r="A53" t="s">
+        <v>149</v>
       </c>
       <c r="B53">
         <v>2020</v>
@@ -2245,24 +2335,24 @@
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E53" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F53" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>146</v>
+      <c r="A54" t="s">
+        <v>145</v>
       </c>
       <c r="B54">
         <v>2020</v>
@@ -2271,24 +2361,24 @@
         <v>19</v>
       </c>
       <c r="D54" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
       </c>
       <c r="H54" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>149</v>
+      <c r="A55" t="s">
+        <v>133</v>
       </c>
       <c r="B55">
         <v>2020</v>
@@ -2297,19 +2387,279 @@
         <v>19</v>
       </c>
       <c r="D55" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E55" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F55" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
       </c>
       <c r="H55" t="s">
-        <v>6</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56">
+        <v>2020</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+      <c r="B57">
+        <v>2020</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" t="s">
+        <v>173</v>
+      </c>
+      <c r="E57" t="s">
+        <v>172</v>
+      </c>
+      <c r="F57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G57" t="s">
+        <v>168</v>
+      </c>
+      <c r="H57" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58">
+        <v>2020</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>94</v>
+      </c>
+      <c r="E58" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" t="s">
+        <v>142</v>
+      </c>
+      <c r="G58" t="s">
+        <v>33</v>
+      </c>
+      <c r="H58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59">
+        <v>2021</v>
+      </c>
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" t="s">
+        <v>176</v>
+      </c>
+      <c r="G59" t="s">
+        <v>33</v>
+      </c>
+      <c r="H59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60">
+        <v>2021</v>
+      </c>
+      <c r="C60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61">
+        <v>2021</v>
+      </c>
+      <c r="C61" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>182</v>
+      </c>
+      <c r="G61" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62">
+        <v>2021</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63">
+        <v>2021</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>161</v>
+      </c>
+      <c r="G63" t="s">
+        <v>33</v>
+      </c>
+      <c r="H63" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64">
+        <v>2021</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>94</v>
+      </c>
+      <c r="E64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F64" t="s">
+        <v>163</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65">
+        <v>2022</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>94</v>
+      </c>
+      <c r="E65" t="s">
+        <v>21</v>
+      </c>
+      <c r="F65" t="s">
+        <v>162</v>
+      </c>
+      <c r="G65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2324,14 +2674,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B1">
@@ -2357,7 +2705,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B2">
